--- a/data/text_test.xlsx
+++ b/data/text_test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABCB230-48B5-40B8-B31C-ABCFB916BF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA3D4D-8B2D-468A-B500-63F84D31C668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -261,198 +257,202 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list(int, 3)</t>
+    <t>(255,255,255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_info_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_file_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_web_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yahei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:/Windows/Fonts/msyhl.ttc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microsoft yahei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_text_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_align_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_path_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_text_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arc_span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list(uint32,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list(uint32, 3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(255,255,255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_info_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_file_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_web_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yahei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:/Windows/Fonts/msyhl.ttc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>microsoft yahei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all_colors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>colors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path_text_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text_align_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text_path_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list(int,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path_text_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arc_span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile9</t>
+    <t>list(uint32, 3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,26 +842,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -883,13 +883,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -905,13 +905,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6329DCDC-DB9C-46A1-B709-07F254222891}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -936,34 +936,34 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>90</v>
-      </c>
-      <c r="I1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
       </c>
       <c r="K1" t="s">
         <v>17</v>
@@ -992,10 +992,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -1004,10 +1004,10 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
         <v>2</v>
@@ -1024,13 +1024,13 @@
         <v>123456789</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1042,13 +1042,13 @@
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J4">
         <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1062,13 +1062,13 @@
         <v>123456789</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J5">
         <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1100,13 +1100,13 @@
         <v>123456789</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1118,13 +1118,13 @@
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J6">
         <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1138,13 +1138,13 @@
         <v>123456789</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J7">
         <v>48</v>
@@ -1176,13 +1176,13 @@
         <v>123456789</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J8">
         <v>48</v>
@@ -1214,13 +1214,13 @@
         <v>123456789</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J9">
         <v>48</v>
@@ -1252,13 +1252,13 @@
         <v>123456789</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J10">
         <v>48</v>
@@ -1290,13 +1290,13 @@
         <v>123456789</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J11">
         <v>48</v>
@@ -1328,13 +1328,13 @@
         <v>123456789</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J12">
         <v>48</v>
@@ -1366,13 +1366,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J13">
         <v>48</v>
@@ -1408,7 +1408,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1424,7 +1424,7 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>56</v>
@@ -1450,19 +1450,19 @@
         <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>61</v>
@@ -1739,7 +1739,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1777,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1788,7 +1788,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1802,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDDCA0A-57A4-4235-89F4-63017FFAA865}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1839,16 +1839,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1919,13 +1919,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/text_test.xlsx
+++ b/data/text_test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA3D4D-8B2D-468A-B500-63F84D31C668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA369C0-D65F-43B0-8D08-E454F263CFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="-7890" windowWidth="21820" windowHeight="38020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="125">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list(int, 3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,10 +253,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(255,255,255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,13 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,15 +429,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list(uint32,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list(uint32, 3)</t>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["uint", 3]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list(uint32, 3)</t>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>["int",3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[255,255,255]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"123456789"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,15 +837,15 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -816,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -824,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -832,36 +877,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -879,20 +924,20 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -903,15 +948,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -924,46 +969,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6329DCDC-DB9C-46A1-B709-07F254222891}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" t="s">
-        <v>90</v>
       </c>
       <c r="K1" t="s">
         <v>17</v>
@@ -975,7 +1020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -992,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -1004,10 +1049,10 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="L2" t="s">
         <v>2</v>
@@ -1016,21 +1061,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>123456789</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1042,33 +1087,33 @@
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J4">
         <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>123456789</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1080,33 +1125,33 @@
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J5">
         <v>48</v>
       </c>
       <c r="L5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
         <v>93</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>123456789</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1118,33 +1163,33 @@
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6">
         <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>123456789</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1156,33 +1201,33 @@
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J7">
         <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>123456789</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
       </c>
       <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
         <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1194,33 +1239,33 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J8">
         <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>123456789</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1232,33 +1277,33 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J9">
         <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>123456789</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1270,33 +1315,33 @@
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J10">
         <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>123456789</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1308,33 +1353,33 @@
         <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J11">
         <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>123456789</v>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1346,33 +1391,33 @@
         <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J12">
         <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1384,13 +1429,13 @@
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J13">
         <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1408,72 +1453,72 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>968</v>
@@ -1488,18 +1533,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2">
         <v>1026</v>
@@ -1514,18 +1559,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <v>1021</v>
@@ -1540,18 +1585,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
         <v>975</v>
@@ -1566,18 +1611,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>1012</v>
@@ -1592,18 +1637,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>1046</v>
@@ -1618,18 +1663,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>1021</v>
@@ -1644,18 +1689,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>970</v>
@@ -1670,18 +1715,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>947</v>
@@ -1696,18 +1741,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <v>1014</v>
@@ -1722,10 +1767,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1739,15 +1784,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1758,18 +1803,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1777,18 +1822,18 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1802,13 +1847,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDDCA0A-57A4-4235-89F4-63017FFAA865}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1834,21 +1879,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1860,9 +1905,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>800</v>
@@ -1895,12 +1940,12 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1914,23 +1959,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1942,9 +1987,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1956,9 +2001,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1970,9 +2015,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1984,9 +2029,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1998,9 +2043,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -2012,9 +2057,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -2026,9 +2071,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -2040,9 +2085,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -2054,9 +2099,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -2068,9 +2113,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2">
         <v>255</v>
